--- a/ProjectRoadMap.xlsx
+++ b/ProjectRoadMap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sujahidbasha/Desktop/DietBuddyResearchProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECBA4D9-1091-F641-B0F1-493F97E426D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9D001C-3C32-9943-BEA9-817EEE2332F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7A5E559D-C392-A644-89EE-F245C31213C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Week-1</t>
   </si>
@@ -114,14 +114,7 @@
     <t>Manual Log Entry- new Meal Type(data) Entry</t>
   </si>
   <si>
-    <t>Self-monitoring</t>
-  </si>
-  <si>
     <t>Reminders</t>
-  </si>
-  <si>
-    <t>reward
- (incentivize users for logging food and engaging with interventions)</t>
   </si>
   <si>
     <t>suggest alternative food items (within the same category) 
@@ -137,9 +130,6 @@
  in real-time</t>
   </si>
   <si>
-    <t>RnD</t>
-  </si>
-  <si>
     <t>Detect food images and predict calories using 
 Machine Learning techniques</t>
   </si>
@@ -164,16 +154,10 @@
     <t>Weeks</t>
   </si>
   <si>
-    <t>Module</t>
-  </si>
-  <si>
     <t>Tasks- Overview</t>
   </si>
   <si>
     <t>- Timely Interventions based on User Logging and Achievements</t>
-  </si>
-  <si>
-    <t>- Self-monitoring Features</t>
   </si>
   <si>
     <t>Task-BreakDown</t>
@@ -235,12 +219,6 @@
     <t>Implementing Interventions/Suggestions/Notifications</t>
   </si>
   <si>
-    <t>Reminder System Setup</t>
-  </si>
-  <si>
-    <t>Reward System Implementation to Incentivize User Engagement</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Suggest Alternative Food Items with Fewer Calories</t>
   </si>
   <si>
@@ -278,13 +256,89 @@
   </si>
   <si>
     <t>Week -7</t>
+  </si>
+  <si>
+    <t>Self-Monitoring System</t>
+  </si>
+  <si>
+    <t>Create Real time charts</t>
+  </si>
+  <si>
+    <t>Create History on selecting the date, change the analysis of charts</t>
+  </si>
+  <si>
+    <t>Week-8</t>
+  </si>
+  <si>
+    <t>Wrap up</t>
+  </si>
+  <si>
+    <t>Made report and presentation of the</t>
+  </si>
+  <si>
+    <t>application to my supervisor Dr. Rita Orji</t>
+  </si>
+  <si>
+    <t>Week-0</t>
+  </si>
+  <si>
+    <t>Discussed with Dr.Rita Orji for reasearch project</t>
+  </si>
+  <si>
+    <t>ProjectSetup</t>
+  </si>
+  <si>
+    <t>GitHub Repo, Tech stack, flutter, python, and backend hosting</t>
+  </si>
+  <si>
+    <t>Implemented Figma design for application.
+UI Screen and got important feedback to rectify the issues.</t>
+  </si>
+  <si>
+    <t>Project Initialization/Design/ Evaluation</t>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>January 15 - January 21, 2024</t>
+  </si>
+  <si>
+    <t>January 22 - January 28, 2024</t>
+  </si>
+  <si>
+    <t>January 29 - February 4, 2024</t>
+  </si>
+  <si>
+    <t>February 5 - February 11, 2024</t>
+  </si>
+  <si>
+    <t>February 12 - February 18, 2024</t>
+  </si>
+  <si>
+    <t>February 19 - February 25, 2024</t>
+  </si>
+  <si>
+    <t>February 26 - March 10, 2024</t>
+  </si>
+  <si>
+    <t>March 10 - March 17, 2024</t>
+  </si>
+  <si>
+    <t>Predict Calories after user upload a image</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>March 17 - March 26, 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,6 +353,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="2">
@@ -373,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,15 +455,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,12 +497,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,9 +537,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -487,7 +577,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -593,7 +683,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -735,7 +825,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -743,489 +833,639 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3969B69F-E3E4-6746-A2D2-75A9DEC10E8B}">
-  <dimension ref="D9:G55"/>
+  <dimension ref="C9:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G14"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="4:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="12" t="s">
+    <row r="9" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="12" t="s">
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="3:7" s="24" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" s="24" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="19"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" s="24" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="19"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" s="24" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="19"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="19"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="19"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="19"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="19"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="19"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="19"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="19"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="19"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="27"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="C27" s="19"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="19"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="19"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="27"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="3:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="19"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="19"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="19"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="19"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="19"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="27"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="3:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="19"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="19"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="19"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="19"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="19"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="19"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="3:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="C45" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="C46" s="19"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="C47" s="19"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C48" s="27"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="19"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="19"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="19"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C53" s="27"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="3:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="4:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="D11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="4:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D15" s="10"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="4:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="D16" s="10"/>
-      <c r="E16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="4:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="D22" s="9" t="s">
+    </row>
+    <row r="55" spans="3:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="C55" s="19"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="19"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="19"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="19"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="19"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C60" s="27"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="3:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="4:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="10"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="10"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D30" s="10"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="10"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="11"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="4:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="9" t="s">
+      <c r="F61" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D35" s="10"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="D36" s="10"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="10"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D38" s="10"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="10"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D40" s="11"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="4:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="D41" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="D42" s="10"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="D43" s="11"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="4:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="10"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="47" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="10"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="4:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D48" s="10"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D49" s="5"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="4:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="9" t="s">
+      <c r="G61" s="23"/>
+    </row>
+    <row r="62" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="19"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="4:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="D51" s="10"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="4:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="10"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D53" s="10"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="4:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="10"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D55" s="11"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="G62" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="E50:E55"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="F45:F48"/>
+  <mergeCells count="50">
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C15:C24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D15:D24"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="E38:E47"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="F40:F44"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="D31:D36"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="D11:D20"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="E34:E43"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E54:E59"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="D54:D59"/>
+    <mergeCell ref="F49:F52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
